--- a/05.Labour force by ethnic group.xlsx
+++ b/05.Labour force by ethnic group.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Downloads\Malaysia Labour Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science Projects\Malaysia Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E39DCC-E784-49FE-B746-7B3D474A0D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A50959-52D6-477E-A7CB-847D8F09CC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,8 +280,7 @@
     <t xml:space="preserve"> Bumiputera</t>
   </si>
   <si>
-    <t>Non Malaysian 
-citizens</t>
+    <t>Non Malaysian citizens</t>
   </si>
 </sst>
 </file>
@@ -755,25 +754,25 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,7 +1127,9 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2209,28 +2210,28 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B43" s="45"/>
@@ -2412,23 +2413,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -2436,13 +2437,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2459,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -3527,28 +3528,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -3734,23 +3735,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -3758,13 +3759,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3780,7 +3781,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -4849,28 +4850,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -5056,23 +5057,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -5080,13 +5081,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -5102,7 +5103,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -6171,28 +6172,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -6378,23 +6379,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -6402,13 +6403,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -6424,7 +6425,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -7493,28 +7494,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -7700,23 +7701,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -7724,13 +7725,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -7746,7 +7747,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -8815,28 +8816,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -9022,23 +9023,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -9046,13 +9047,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -9068,7 +9069,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -10137,28 +10138,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -10344,23 +10345,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -10368,13 +10369,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -10390,7 +10391,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -11617,23 +11618,23 @@
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -11641,13 +11642,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -11663,7 +11664,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -12183,23 +12184,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -12207,13 +12208,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -12229,7 +12230,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -13298,28 +13299,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -13505,23 +13506,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -13529,13 +13530,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -13551,7 +13552,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -14620,28 +14621,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -14827,23 +14828,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -14851,13 +14852,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -14873,7 +14874,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -15942,28 +15943,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -16149,23 +16150,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -16173,13 +16174,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -16195,7 +16196,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -17264,28 +17265,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -17471,23 +17472,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -17495,13 +17496,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -17517,7 +17518,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -18586,28 +18587,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -18793,23 +18794,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -18817,13 +18818,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -18839,7 +18840,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -19908,28 +19909,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -20115,23 +20116,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -20139,13 +20140,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -20161,7 +20162,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -21230,28 +21231,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
@@ -21437,23 +21438,23 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="62" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
@@ -21461,13 +21462,13 @@
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
@@ -21483,7 +21484,7 @@
       <c r="H7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -22552,28 +22553,28 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C50" s="45"/>
